--- a/Irctc/testData/XLData.xlsx
+++ b/Irctc/testData/XLData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="6255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="6255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="URL" sheetId="4" r:id="rId2"/>
     <sheet name="Register" sheetId="2" r:id="rId3"/>
     <sheet name="PNR" sheetId="3" r:id="rId4"/>
+    <sheet name="DataDriven" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>username</t>
   </si>
@@ -493,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -755,4 +756,62 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>